--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E19174-A3C2-40D9-BE28-FB8180B7BA67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF9C34-5693-4D54-ADF9-EEB3F64A2B81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="108">
   <si>
     <t>Alexandro Teixeira Cuencas</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>pós-teste</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
 </sst>
 </file>
@@ -1154,36 +1157,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1231,40 +1204,6 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9749,17 +9688,17 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="55" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="36" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="42" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="50" customWidth="1"/>
@@ -9974,7 +9913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>94</v>
       </c>
@@ -10473,7 +10412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>100</v>
       </c>
@@ -10651,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="F22" s="54" t="s">
         <v>4</v>
@@ -10719,7 +10658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
         <v>90</v>
       </c>
@@ -10793,7 +10732,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>103</v>
       </c>
@@ -36474,6 +36413,11 @@
   <autoFilter ref="A1:Y27" xr:uid="{103C713D-16BB-4632-B672-6EEB825CC6FD}">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="-"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF9C34-5693-4D54-ADF9-EEB3F64A2B81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B95DC-82E0-4A0F-83BF-7F41A78E8488}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1125,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF70AD47"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9688,7 +9688,7 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9699,8 +9699,8 @@
     <col min="4" max="4" width="8.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="50" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="55" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="50" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="40" customWidth="1"/>
     <col min="11" max="11" width="10" style="84" bestFit="1" customWidth="1"/>
@@ -9749,7 +9749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
         <v>92</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
         <v>93</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>7</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>95</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>96</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>97</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>98</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>18</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>99</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="86" t="s">
         <v>20</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
         <v>101</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>102</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="s">
         <v>26</v>
       </c>
@@ -36414,7 +36414,7 @@
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <filterColumn colId="6">
+    <filterColumn colId="8">
       <filters>
         <filter val="-"/>
       </filters>
@@ -63725,7 +63725,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63747,13 +63747,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="104"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63775,7 +63775,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63797,7 +63797,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63819,7 +63819,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63849,7 +63849,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63881,7 +63881,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63903,7 +63903,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63925,7 +63925,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63947,7 +63947,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63969,7 +63969,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -63991,7 +63991,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67729,18 +67729,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B95DC-82E0-4A0F-83BF-7F41A78E8488}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1D60-7834-415A-BA5B-6090568445DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9688,7 +9688,7 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9701,7 +9701,7 @@
     <col min="6" max="6" width="8.85546875" style="55" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="36" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="50" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="50" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="40" customWidth="1"/>
     <col min="11" max="11" width="10" style="84" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="18" bestFit="1" customWidth="1"/>
@@ -9872,7 +9872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>7</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
@@ -36414,7 +36414,7 @@
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <filterColumn colId="8">
+    <filterColumn colId="9">
       <filters>
         <filter val="-"/>
       </filters>
@@ -63725,7 +63725,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="104"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63747,13 +63747,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63775,7 +63775,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63797,7 +63797,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63819,7 +63819,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63849,7 +63849,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="104"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63881,7 +63881,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="104"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63903,7 +63903,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="104"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63925,7 +63925,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="104"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63947,7 +63947,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63969,7 +63969,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -63991,7 +63991,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="104"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67729,18 +67729,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1D60-7834-415A-BA5B-6090568445DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB64C07-DDC0-4B5C-A3BD-99A9616450B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9688,7 +9688,7 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9702,7 +9702,7 @@
     <col min="7" max="7" width="8.85546875" style="36" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="50" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="40" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="84" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" style="18" bestFit="1" customWidth="1"/>
@@ -9790,7 +9790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>7</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
         <v>16</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="s">
         <v>24</v>
       </c>
@@ -36414,7 +36414,7 @@
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <filterColumn colId="9">
+    <filterColumn colId="10">
       <filters>
         <filter val="-"/>
       </filters>
@@ -63725,7 +63725,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63747,13 +63747,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="104"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63775,7 +63775,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63797,7 +63797,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63819,7 +63819,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63849,7 +63849,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63881,7 +63881,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63903,7 +63903,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63925,7 +63925,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63947,7 +63947,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63969,7 +63969,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -63991,7 +63991,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67729,18 +67729,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB64C07-DDC0-4B5C-A3BD-99A9616450B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E60E4-B385-4FBF-A292-E8F80D12F381}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre e pos juntos" sheetId="15" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,6 +1254,40 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9688,21 +9722,21 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="55" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="50" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="55" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="40" customWidth="1"/>
     <col min="11" max="11" width="10" style="84" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" style="18" bestFit="1" customWidth="1"/>
@@ -10036,7 +10070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
@@ -10118,7 +10152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
         <v>14</v>
       </c>
@@ -10453,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="86" t="s">
         <v>22</v>
       </c>
@@ -10695,7 +10729,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
         <v>89</v>
       </c>
@@ -10769,7 +10803,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
         <v>104</v>
       </c>
@@ -36413,11 +36447,6 @@
   <autoFilter ref="A1:Y27" xr:uid="{103C713D-16BB-4632-B672-6EEB825CC6FD}">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="-"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -63725,7 +63754,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="104"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63747,13 +63776,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63775,7 +63804,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63797,7 +63826,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63819,7 +63848,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63849,7 +63878,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="104"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63881,7 +63910,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="104"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63903,7 +63932,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="104"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63925,7 +63954,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="104"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63947,7 +63976,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63969,7 +63998,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -63991,7 +64020,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="104"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67729,18 +67758,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E60E4-B385-4FBF-A292-E8F80D12F381}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B31D8E-E748-428F-BFFA-B99BFCD465AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre e pos juntos" sheetId="15" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1125,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1204,6 +1204,40 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1254,40 +1288,6 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$27:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9722,7 +9722,7 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9783,7 +9783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
         <v>92</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
         <v>93</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>7</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>94</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>95</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>96</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
         <v>14</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>97</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
         <v>16</v>
       </c>
@@ -10282,7 +10282,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>98</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>18</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>99</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86" t="s">
         <v>20</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>100</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86" t="s">
         <v>22</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
         <v>101</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="s">
         <v>24</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>102</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="s">
         <v>26</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
         <v>90</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
         <v>89</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>103</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
         <v>104</v>
       </c>
@@ -63754,7 +63754,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63776,13 +63776,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="104"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63804,7 +63804,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63826,7 +63826,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63848,7 +63848,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63878,7 +63878,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63910,7 +63910,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63932,7 +63932,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63954,7 +63954,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63976,7 +63976,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63998,7 +63998,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -64020,7 +64020,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67758,18 +67758,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/tabulacao.xlsx
+++ b/tabulacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao moreira\Desktop\javascript\git\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B31D8E-E748-428F-BFFA-B99BFCD465AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2491C19-71CE-4088-96F7-47CE19B54DC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,8 +1115,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1125,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF70AD47"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1204,40 +1204,6 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1288,6 +1254,40 @@
           <c:val>
             <c:numRef>
               <c:f>'pre e pos juntos'!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9783,7 +9783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
         <v>92</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
         <v>93</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>7</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>94</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>95</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>96</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
         <v>14</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>97</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
         <v>16</v>
       </c>
@@ -10282,7 +10282,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>98</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>18</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>99</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="86" t="s">
         <v>20</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>100</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="86" t="s">
         <v>22</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
         <v>101</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="s">
         <v>24</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>102</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="s">
         <v>26</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
         <v>90</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
         <v>89</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>103</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
         <v>104</v>
       </c>
@@ -63754,7 +63754,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="104"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
@@ -63776,13 +63776,13 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
@@ -63804,7 +63804,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -63826,7 +63826,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -63848,7 +63848,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
@@ -63878,7 +63878,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="104"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -63910,7 +63910,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="104"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
@@ -63932,7 +63932,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="104"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -63954,7 +63954,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="104"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
@@ -63976,7 +63976,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -63998,7 +63998,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -64020,7 +64020,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="104"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -67758,18 +67758,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
